--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Fall.091820.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Fall.091820.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1619,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1885,12 +1885,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1965,12 +1965,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2003,12 +2003,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2121,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2159,12 +2159,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2197,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2315,12 +2315,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2657,12 +2657,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2733,12 +2733,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2999,12 +2999,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3531,12 +3531,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3761,12 +3761,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3955,12 +3955,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4259,12 +4259,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4449,12 +4449,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4829,12 +4829,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5019,12 +5019,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5513,12 +5513,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5935,12 +5935,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5973,12 +5973,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6127,12 +6127,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6283,12 +6283,12 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6321,12 +6321,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6359,12 +6359,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6625,12 +6625,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6777,12 +6777,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6891,12 +6891,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7423,12 +7423,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7461,12 +7461,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7537,12 +7537,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7727,12 +7727,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7879,12 +7879,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7993,12 +7993,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8105,12 +8105,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8333,12 +8333,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8409,12 +8409,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8825,12 +8825,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9167,12 +9167,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9545,12 +9545,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9583,12 +9583,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9659,12 +9659,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9811,12 +9811,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10001,12 +10001,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10381,12 +10381,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10799,12 +10799,12 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10837,12 +10837,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10989,12 +10989,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11141,12 +11141,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11369,12 +11369,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11521,12 +11521,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11635,12 +11635,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11863,12 +11863,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11939,12 +11939,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11977,12 +11977,12 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12015,12 +12015,12 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12057,12 +12057,12 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12095,12 +12095,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12133,12 +12133,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12247,12 +12247,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13091,12 +13091,12 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13281,12 +13281,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13433,12 +13433,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13471,12 +13471,12 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13547,12 +13547,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14429,12 +14429,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14623,12 +14623,12 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15427,12 +15427,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15655,12 +15655,12 @@
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16073,12 +16073,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16111,12 +16111,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16415,12 +16415,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16719,12 +16719,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16833,12 +16833,12 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16985,12 +16985,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17061,12 +17061,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18577,12 +18577,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18805,12 +18805,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18919,12 +18919,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18957,12 +18957,12 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19333,12 +19333,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19641,12 +19641,12 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19679,12 +19679,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20865,12 +20865,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21169,12 +21169,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21207,12 +21207,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21283,12 +21283,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21815,12 +21815,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22461,12 +22461,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22499,12 +22499,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23145,12 +23145,12 @@
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23411,12 +23411,12 @@
       <c r="H603" t="inlineStr"/>
       <c r="I603" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23563,12 +23563,12 @@
       <c r="H607" t="inlineStr"/>
       <c r="I607" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
